--- a/biology/Botanique/Eupatorium/Eupatorium.xlsx
+++ b/biology/Botanique/Eupatorium/Eupatorium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eupatorium  (les eupatoires) est un genre de plantes à fleurs de la famille des Astéracées (Composées).
 Le genre doit son nom au roi Mithridate VI Eupator qui, craignant pour sa vie, essaya de s’immuniser de l’effet de certains poisons par leur absorption régulière en petites quantités. Il aurait ainsi découvert les vertus médicinales de nombreuses plantes dont l’eupatoire chanvrine.
@@ -513,7 +525,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Eupatorium album L.
 Eupatorium altissimum L.
@@ -575,7 +589,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour Eupatorium ayapana et Eupatorium triplinerve, voir Ayapana triplinervis.
 </t>
